--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="237">
   <si>
     <t>Name</t>
   </si>
@@ -708,9 +708,6 @@
     <t>Mailadres en het ADW-wachtwoord waarmee de logmails verstuurd worden en waarmee ingelogd kan worden op SSO-applicaties</t>
   </si>
   <si>
-    <t>*rpa-orchestrator*;*focus*;hor*amsterdam.nl;*wigo4it.nl</t>
-  </si>
-  <si>
     <t>!!!NIET AANPASSEN!!!
 True = De productie omgeving wordt gebruikt
 False = De acceptatie omgeving wordt gebruikt</t>
@@ -734,12 +731,6 @@
     <t>financiën</t>
   </si>
   <si>
-    <t>Robot_AFS_Login</t>
-  </si>
-  <si>
-    <t>Robot_AFS_Login2</t>
-  </si>
-  <si>
     <t>Robot_ADW_Mail</t>
   </si>
   <si>
@@ -797,7 +788,13 @@
     <t>Wat is er fout gegaan?</t>
   </si>
   <si>
-    <t>FRAFS_Voorraad</t>
+    <t>*rpa-orchestrator*;*focus*;hor*.amsterdam.nl;*wigo4it.nl</t>
+  </si>
+  <si>
+    <t>Robot_AFSAcc_Login</t>
+  </si>
+  <si>
+    <t>Robot_AFSProd_Login</t>
   </si>
 </sst>
 </file>
@@ -2264,15 +2261,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5703125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="33.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="47.7109375" style="5" customWidth="1"/>
-    <col min="3" max="3" width="127.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="94.5703125" style="5" customWidth="1"/>
     <col min="4" max="4" width="42.7109375" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="26" width="8.7109375" style="4" customWidth="1"/>
     <col min="27" max="16384" width="14.42578125" style="4"/>
@@ -2314,7 +2311,7 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" ht="31.5">
+    <row r="2" spans="1:26" ht="45">
       <c r="A2" s="15" t="s">
         <v>19</v>
       </c>
@@ -2373,7 +2370,7 @@
         <v>36</v>
       </c>
       <c r="B6" s="75" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>159</v>
@@ -2384,7 +2381,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>38</v>
@@ -2395,7 +2392,7 @@
         <v>39</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>158</v>
@@ -2406,8 +2403,9 @@
       <c r="A9" s="24" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="17" t="s">
-        <v>237</v>
+      <c r="B9" s="17" t="str">
+        <f>B6</f>
+        <v>AFSFacturenReset</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>157</v>
@@ -2419,7 +2417,7 @@
         <v>197</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C10" s="70" t="s">
         <v>198</v>
@@ -2427,37 +2425,37 @@
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" s="34" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>216</v>
+        <v>235</v>
       </c>
       <c r="C11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" s="34" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="B12" s="35" t="s">
-        <v>217</v>
+        <v>236</v>
       </c>
       <c r="C12" s="35"/>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" s="34" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C13" s="35"/>
     </row>
     <row r="14" spans="1:26" ht="14.25" customHeight="1">
       <c r="A14" s="34" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C14" s="35"/>
     </row>
@@ -3798,7 +3796,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5628,90 +5626,90 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B17" s="38" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C17" s="38"/>
       <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B18" s="38" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B19" s="38" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C19" s="38"/>
       <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" ht="14.25" customHeight="1">
       <c r="A20" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B20" s="38" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C20" s="38"/>
       <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4" ht="14.25" customHeight="1">
       <c r="A21" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B21" s="38" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C21" s="38"/>
       <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" ht="14.25" customHeight="1">
       <c r="A22" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B22" s="38" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C22" s="38"/>
       <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" ht="14.25" customHeight="1">
       <c r="A23" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B23" s="38" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C23" s="38"/>
       <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" ht="14.25" customHeight="1">
       <c r="A24" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B24" s="38" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" ht="14.25" customHeight="1">
       <c r="A25" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B25" s="38" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C25" s="38"/>
       <c r="D25" s="38"/>
@@ -7078,7 +7076,7 @@
   <dimension ref="A1:G100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7207,7 +7205,7 @@
         <v>204</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>138</v>
@@ -7247,13 +7245,13 @@
         <v>116</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C8" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>107</v>
@@ -7273,7 +7271,7 @@
         <v>83</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>107</v>
@@ -8151,7 +8149,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
     <col min="3" max="3" width="100.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8177,10 +8175,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="58" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C3" s="68" t="s">
         <v>113</v>
@@ -8188,10 +8186,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="62" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B4" s="63" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C4" s="68" t="s">
         <v>194</v>
@@ -8199,18 +8197,18 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="58" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="58" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -8227,7 +8225,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
